--- a/src/test/resources/excel/testData.xlsx
+++ b/src/test/resources/excel/testData.xlsx
@@ -66,7 +66,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -88,6 +88,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -108,7 +115,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA9D18E"/>
-        <bgColor rgb="FF99CCFF"/>
+        <bgColor rgb="FFA9B7C6"/>
       </patternFill>
     </fill>
   </fills>
@@ -153,7 +160,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -166,6 +173,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -186,7 +197,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -215,7 +226,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFA9D18E"/>
+      <rgbColor rgb="FFA9B7C6"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -237,7 +248,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFA9D18E"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
@@ -267,13 +278,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="A5:C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17"/>
@@ -284,72 +295,100 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-    </row>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -369,19 +408,19 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="A5:C38 B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>11</v>
       </c>
     </row>
